--- a/Code/Results/Cases/Case_4_79/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_79/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.83321463216332</v>
+        <v>18.91363166473712</v>
       </c>
       <c r="C2">
-        <v>21.48586897718091</v>
+        <v>15.28701316329902</v>
       </c>
       <c r="D2">
-        <v>12.22448451889885</v>
+        <v>15.03032962933279</v>
       </c>
       <c r="E2">
-        <v>13.22185510314601</v>
+        <v>16.4524776792096</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>47.33368620632186</v>
+        <v>48.42850894251271</v>
       </c>
       <c r="H2">
-        <v>13.52852954564544</v>
+        <v>18.74572410737582</v>
       </c>
       <c r="I2">
-        <v>18.33540281643795</v>
+        <v>25.61290236982534</v>
       </c>
       <c r="J2">
-        <v>5.85056553692201</v>
+        <v>9.397903213633118</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.45596332222993</v>
+        <v>18.03386714620476</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.0770684052488</v>
+        <v>18.39786324980298</v>
       </c>
       <c r="C3">
-        <v>19.95316963833013</v>
+        <v>14.7895303551205</v>
       </c>
       <c r="D3">
-        <v>11.68735837604719</v>
+        <v>14.97548227606261</v>
       </c>
       <c r="E3">
-        <v>12.65115789106321</v>
+        <v>16.39854111648452</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>44.96301330362116</v>
+        <v>48.09034601788373</v>
       </c>
       <c r="H3">
-        <v>13.19748811555972</v>
+        <v>18.75872968850654</v>
       </c>
       <c r="I3">
-        <v>18.01867642484189</v>
+        <v>25.66374274472542</v>
       </c>
       <c r="J3">
-        <v>5.759355372485883</v>
+        <v>9.409937906010668</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.74908247094293</v>
+        <v>18.11037131698798</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.94282633884123</v>
+        <v>18.07860768532085</v>
       </c>
       <c r="C4">
-        <v>18.96620324638256</v>
+        <v>14.47978653323477</v>
       </c>
       <c r="D4">
-        <v>11.35684745206317</v>
+        <v>14.94543175829169</v>
       </c>
       <c r="E4">
-        <v>12.30075927688229</v>
+        <v>16.36941931823545</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>43.51414335677433</v>
+        <v>47.89986158433803</v>
       </c>
       <c r="H4">
-        <v>13.00639624071728</v>
+        <v>18.77149670012205</v>
       </c>
       <c r="I4">
-        <v>17.84705676811013</v>
+        <v>25.70204080166868</v>
       </c>
       <c r="J4">
-        <v>5.706963676358381</v>
+        <v>9.418890670657325</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.93093706605086</v>
+        <v>18.15931704480719</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.46636490312715</v>
+        <v>17.94807296541402</v>
       </c>
       <c r="C5">
-        <v>18.55231825321029</v>
+        <v>14.35269983360358</v>
       </c>
       <c r="D5">
-        <v>11.22211215484046</v>
+        <v>14.93410467066694</v>
       </c>
       <c r="E5">
-        <v>12.15810516205702</v>
+        <v>16.35856287909722</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>42.92592025238494</v>
+        <v>47.82660944286967</v>
       </c>
       <c r="H5">
-        <v>12.9315240418271</v>
+        <v>18.77789748566392</v>
       </c>
       <c r="I5">
-        <v>17.7826221251054</v>
+        <v>25.71941837907575</v>
       </c>
       <c r="J5">
-        <v>5.686500821247629</v>
+        <v>9.422931682766498</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.00559455220494</v>
+        <v>18.17976073990558</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.38638345981625</v>
+        <v>17.92637784254378</v>
       </c>
       <c r="C6">
-        <v>18.48288314146726</v>
+        <v>14.33155159176782</v>
       </c>
       <c r="D6">
-        <v>11.19974076483755</v>
+        <v>14.93227948706093</v>
       </c>
       <c r="E6">
-        <v>12.1344301715933</v>
+        <v>16.3568213921664</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>42.82839661695268</v>
+        <v>47.814711582379</v>
       </c>
       <c r="H6">
-        <v>12.91927088398022</v>
+        <v>18.779032560118</v>
       </c>
       <c r="I6">
-        <v>17.77224776983869</v>
+        <v>25.72241056214501</v>
       </c>
       <c r="J6">
-        <v>5.683155953314897</v>
+        <v>9.423626392761225</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.01802676493402</v>
+        <v>18.18318553342444</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.93645852568525</v>
+        <v>18.07684872524539</v>
       </c>
       <c r="C7">
-        <v>18.96066895363227</v>
+        <v>14.47807579949057</v>
       </c>
       <c r="D7">
-        <v>11.35503037443902</v>
+        <v>14.9452752689342</v>
       </c>
       <c r="E7">
-        <v>12.29883464721711</v>
+        <v>16.36926880392932</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>43.50620068852347</v>
+        <v>47.89885590764341</v>
       </c>
       <c r="H7">
-        <v>13.00537442632501</v>
+        <v>18.77157817834534</v>
       </c>
       <c r="I7">
-        <v>17.8461658331361</v>
+        <v>25.70226800560899</v>
       </c>
       <c r="J7">
-        <v>5.706684142512485</v>
+        <v>9.418943579830138</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.93194159654834</v>
+        <v>18.15959073691734</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.23919777696547</v>
+        <v>18.73645189579097</v>
       </c>
       <c r="C8">
-        <v>20.96681821869734</v>
+        <v>15.11649485599122</v>
       </c>
       <c r="D8">
-        <v>12.0395011755504</v>
+        <v>15.01067020607508</v>
       </c>
       <c r="E8">
-        <v>13.02514767259319</v>
+        <v>16.4330551878596</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>46.51514608898113</v>
+        <v>48.30838968449606</v>
       </c>
       <c r="H8">
-        <v>13.41182474693272</v>
+        <v>18.74921364650399</v>
       </c>
       <c r="I8">
-        <v>18.22130819385353</v>
+        <v>25.62895645212679</v>
       </c>
       <c r="J8">
-        <v>5.818353835986077</v>
+        <v>9.401728039080144</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.55669000191213</v>
+        <v>18.0598377811151</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.31985021490989</v>
+        <v>20.00081065905357</v>
       </c>
       <c r="C9">
-        <v>24.54503627939925</v>
+        <v>16.32578992741453</v>
       </c>
       <c r="D9">
-        <v>13.37186933968062</v>
+        <v>15.1673235492806</v>
       </c>
       <c r="E9">
-        <v>14.44524002231372</v>
+        <v>16.58951600067678</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>52.45415856281573</v>
+        <v>49.24449182504273</v>
       </c>
       <c r="H9">
-        <v>14.30821840923165</v>
+        <v>18.74346181955348</v>
       </c>
       <c r="I9">
-        <v>19.14887955151639</v>
+        <v>25.54180656065944</v>
       </c>
       <c r="J9">
-        <v>6.067001758383514</v>
+        <v>9.380391616336242</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.83182246810445</v>
+        <v>17.87977197357248</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.06689289708939</v>
+        <v>20.90118385969664</v>
       </c>
       <c r="C10">
-        <v>26.97059823897518</v>
+        <v>17.17786996269941</v>
       </c>
       <c r="D10">
-        <v>14.34147291744495</v>
+        <v>15.29919046916258</v>
       </c>
       <c r="E10">
-        <v>15.48278969642168</v>
+        <v>16.72308449833948</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>56.8331296633003</v>
+        <v>50.00864052707728</v>
       </c>
       <c r="H10">
-        <v>15.03176495832369</v>
+        <v>18.7626573311654</v>
       </c>
       <c r="I10">
-        <v>19.96183742813904</v>
+        <v>25.51283215279351</v>
       </c>
       <c r="J10">
-        <v>6.269346145914676</v>
+        <v>9.372311601270978</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.29985458913781</v>
+        <v>17.75681956708456</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.26573119951298</v>
+        <v>21.30256901650897</v>
       </c>
       <c r="C11">
-        <v>28.03352831610458</v>
+        <v>17.55573365555819</v>
       </c>
       <c r="D11">
-        <v>14.78058695343659</v>
+        <v>15.36268379150982</v>
       </c>
       <c r="E11">
-        <v>15.95363589856537</v>
+        <v>16.78775873260767</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>58.83066276952981</v>
+        <v>50.37170404225728</v>
       </c>
       <c r="H11">
-        <v>15.3762656059674</v>
+        <v>18.77650357576571</v>
       </c>
       <c r="I11">
-        <v>20.36346500954691</v>
+        <v>25.50736494654825</v>
       </c>
       <c r="J11">
-        <v>6.366091473411885</v>
+        <v>9.370288499462513</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.05639785922713</v>
+        <v>17.70288424251564</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.7127409356905</v>
+        <v>21.45323445513224</v>
       </c>
       <c r="C12">
-        <v>28.43056713892354</v>
+        <v>17.69728426865057</v>
       </c>
       <c r="D12">
-        <v>14.94663854738492</v>
+        <v>15.38721802556929</v>
       </c>
       <c r="E12">
-        <v>16.13183176909591</v>
+        <v>16.81279907327742</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>59.58829797630192</v>
+        <v>50.51130180047703</v>
       </c>
       <c r="H12">
-        <v>15.50905864652247</v>
+        <v>18.78248330095919</v>
       </c>
       <c r="I12">
-        <v>20.52041618401889</v>
+        <v>25.50641099182225</v>
       </c>
       <c r="J12">
-        <v>6.403445100685601</v>
+        <v>9.369760144895094</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>9.963844665680508</v>
+        <v>17.68274516930013</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.61677321614515</v>
+        <v>21.42084739343304</v>
       </c>
       <c r="C13">
-        <v>28.34529487500518</v>
+        <v>17.66686922614045</v>
       </c>
       <c r="D13">
-        <v>14.91088539357797</v>
+        <v>15.38191254047533</v>
       </c>
       <c r="E13">
-        <v>16.09345723646403</v>
+        <v>16.80738196279738</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>59.42506472550431</v>
+        <v>50.4811447005029</v>
       </c>
       <c r="H13">
-        <v>15.48035288602349</v>
+        <v>18.78116269677697</v>
       </c>
       <c r="I13">
-        <v>20.4863926810921</v>
+        <v>25.50656668658867</v>
       </c>
       <c r="J13">
-        <v>6.395367609404964</v>
+        <v>9.369863360529356</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>9.983796357514125</v>
+        <v>17.68706983269737</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.30264442090359</v>
+        <v>21.31499183498762</v>
       </c>
       <c r="C14">
-        <v>28.06630037567379</v>
+        <v>17.56741066178489</v>
       </c>
       <c r="D14">
-        <v>14.79425231314404</v>
+        <v>15.36469248416532</v>
       </c>
       <c r="E14">
-        <v>15.96829773973384</v>
+        <v>16.78980788000357</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>58.89296638907125</v>
+        <v>50.38314711297603</v>
       </c>
       <c r="H14">
-        <v>15.3871428514639</v>
+        <v>18.77698076818328</v>
       </c>
       <c r="I14">
-        <v>20.3762782340664</v>
+        <v>25.50726405227742</v>
       </c>
       <c r="J14">
-        <v>6.369149907926419</v>
+        <v>9.370240266174124</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.04879163578869</v>
+        <v>17.70122168723855</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.10933539030973</v>
+        <v>21.24997472978598</v>
       </c>
       <c r="C15">
-        <v>27.89470711340973</v>
+        <v>17.50628532870062</v>
       </c>
       <c r="D15">
-        <v>14.72278328197793</v>
+        <v>15.35420818825484</v>
       </c>
       <c r="E15">
-        <v>15.89162305884297</v>
+        <v>16.77911441684151</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>58.56721489159088</v>
+        <v>50.3233927071641</v>
       </c>
       <c r="H15">
-        <v>15.33035790436835</v>
+        <v>18.77451514347454</v>
       </c>
       <c r="I15">
-        <v>20.30947245262168</v>
+        <v>25.50783679152544</v>
       </c>
       <c r="J15">
-        <v>6.353185763608603</v>
+        <v>9.370502095900784</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.08855121344857</v>
+        <v>17.70992717091239</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.9875518685821</v>
+        <v>20.87477415604225</v>
       </c>
       <c r="C16">
-        <v>26.90034767546071</v>
+        <v>17.15296749053839</v>
       </c>
       <c r="D16">
-        <v>14.31273968669824</v>
+        <v>15.29511045341406</v>
       </c>
       <c r="E16">
-        <v>15.45199998654034</v>
+        <v>16.71893553155521</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>56.70272815596148</v>
+        <v>49.9852152235856</v>
       </c>
       <c r="H16">
-        <v>15.00957044302849</v>
+        <v>18.76185546092928</v>
       </c>
       <c r="I16">
-        <v>19.9362542682718</v>
+        <v>25.51334529218439</v>
       </c>
       <c r="J16">
-        <v>6.263121607336005</v>
+        <v>9.372477080956154</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.31572317674639</v>
+        <v>17.76038436718878</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.28659117465873</v>
+        <v>20.64238871355699</v>
       </c>
       <c r="C17">
-        <v>26.28020858727058</v>
+        <v>16.9336192677889</v>
       </c>
       <c r="D17">
-        <v>14.06071162926738</v>
+        <v>15.25974464670897</v>
       </c>
       <c r="E17">
-        <v>15.18204227333938</v>
+        <v>16.68301100062178</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>55.56057022523816</v>
+        <v>49.78163587549413</v>
       </c>
       <c r="H17">
-        <v>14.81679381574541</v>
+        <v>18.75539996684495</v>
       </c>
       <c r="I17">
-        <v>19.71564108363672</v>
+        <v>25.51870551650849</v>
       </c>
       <c r="J17">
-        <v>6.209101251698985</v>
+        <v>9.374112034868626</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.4546100546001</v>
+        <v>17.79184810426811</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.87861227338703</v>
+        <v>20.50796318873774</v>
       </c>
       <c r="C18">
-        <v>25.91968803292826</v>
+        <v>16.80654521862619</v>
       </c>
       <c r="D18">
-        <v>13.9155614219945</v>
+        <v>15.23973407833232</v>
       </c>
       <c r="E18">
-        <v>15.02665607230327</v>
+        <v>16.66271734414155</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>54.9041126564623</v>
+        <v>49.66600332868086</v>
       </c>
       <c r="H18">
-        <v>14.70734977008887</v>
+        <v>18.75216828242517</v>
       </c>
       <c r="I18">
-        <v>19.59172553077743</v>
+        <v>25.52251421584708</v>
       </c>
       <c r="J18">
-        <v>6.178469362761942</v>
+        <v>9.37520796009637</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.53436667714301</v>
+        <v>17.81013323872236</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.73964267995167</v>
+        <v>20.46232270926428</v>
       </c>
       <c r="C19">
-        <v>25.79695378954802</v>
+        <v>16.76336809509675</v>
       </c>
       <c r="D19">
-        <v>13.86638248364781</v>
+        <v>15.23301607472031</v>
       </c>
       <c r="E19">
-        <v>14.97402434378307</v>
+        <v>16.65591005160468</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>54.68192079591581</v>
+        <v>49.62710625098183</v>
       </c>
       <c r="H19">
-        <v>14.67053705428469</v>
+        <v>18.75115671775282</v>
       </c>
       <c r="I19">
-        <v>19.55027251490385</v>
+        <v>25.52392817392529</v>
       </c>
       <c r="J19">
-        <v>6.168172193846912</v>
+        <v>9.375605731241727</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.56135329463565</v>
+        <v>17.81635662573054</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.36170458479771</v>
+        <v>20.66720670656649</v>
       </c>
       <c r="C20">
-        <v>26.34661777082059</v>
+        <v>16.95706455220361</v>
       </c>
       <c r="D20">
-        <v>14.08755990740956</v>
+        <v>15.26347524457806</v>
       </c>
       <c r="E20">
-        <v>15.21079120234171</v>
+        <v>16.68679711102553</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>55.68210270158315</v>
+        <v>49.80315681175036</v>
       </c>
       <c r="H20">
-        <v>14.83716575530916</v>
+        <v>18.75603733805367</v>
       </c>
       <c r="I20">
-        <v>19.73881579808253</v>
+        <v>25.51805975605379</v>
       </c>
       <c r="J20">
-        <v>6.214806073228321</v>
+        <v>9.373921892013787</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.43983952948052</v>
+        <v>17.78847929042325</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.39509773045</v>
+        <v>21.34612142444477</v>
       </c>
       <c r="C21">
-        <v>28.14839322940063</v>
+        <v>17.59666680692944</v>
       </c>
       <c r="D21">
-        <v>14.82851594014956</v>
+        <v>15.36973722711239</v>
       </c>
       <c r="E21">
-        <v>16.00506221032119</v>
+        <v>16.79495500710566</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>59.04921922864836</v>
+        <v>50.41187490621214</v>
       </c>
       <c r="H21">
-        <v>15.41445624737383</v>
+        <v>18.77818910989879</v>
       </c>
       <c r="I21">
-        <v>20.40848705758813</v>
+        <v>25.50702886804131</v>
       </c>
       <c r="J21">
-        <v>6.376830805073368</v>
+        <v>9.370123106860801</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.0297120641373</v>
+        <v>17.69705722395401</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.68363626520604</v>
+        <v>21.7820160944516</v>
       </c>
       <c r="C22">
-        <v>29.29427639594477</v>
+        <v>18.00566561336352</v>
       </c>
       <c r="D22">
-        <v>15.31147938513051</v>
+        <v>15.44203881211828</v>
       </c>
       <c r="E22">
-        <v>16.52362377649023</v>
+        <v>16.86883925199886</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>61.25724800257316</v>
+        <v>50.82197291881106</v>
       </c>
       <c r="H22">
-        <v>15.80546225343922</v>
+        <v>18.79695918439356</v>
       </c>
       <c r="I22">
-        <v>20.87466401396279</v>
+        <v>25.50632931174261</v>
       </c>
       <c r="J22">
-        <v>6.48693648064554</v>
+        <v>9.369026165922492</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>9.759477583023198</v>
+        <v>17.63896825748086</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.99949095834835</v>
+        <v>21.55013252645107</v>
       </c>
       <c r="C23">
-        <v>28.68546656451072</v>
+        <v>17.78824147609973</v>
       </c>
       <c r="D23">
-        <v>15.0538031614403</v>
+        <v>15.40319371847231</v>
       </c>
       <c r="E23">
-        <v>16.24687487877019</v>
+        <v>16.82911791008399</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>60.07790590327993</v>
+        <v>50.60201052847235</v>
       </c>
       <c r="H23">
-        <v>15.59546854358388</v>
+        <v>18.78654829920301</v>
       </c>
       <c r="I23">
-        <v>20.62314359090512</v>
+        <v>25.50610486245861</v>
       </c>
       <c r="J23">
-        <v>6.427769017949695</v>
+        <v>9.369484807571107</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>9.903962996201008</v>
+        <v>17.66982014629444</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.32776137148689</v>
+        <v>20.6559890469891</v>
       </c>
       <c r="C24">
-        <v>26.31660664613376</v>
+        <v>16.94646794323632</v>
       </c>
       <c r="D24">
-        <v>14.07542260128038</v>
+        <v>15.26178763822734</v>
       </c>
       <c r="E24">
-        <v>15.19779438834617</v>
+        <v>16.68508428872435</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>55.62715732400212</v>
+        <v>49.79342280294519</v>
       </c>
       <c r="H24">
-        <v>14.82795129434651</v>
+        <v>18.75574768856798</v>
       </c>
       <c r="I24">
-        <v>19.72832944249523</v>
+        <v>25.51834944035669</v>
       </c>
       <c r="J24">
-        <v>6.212225602325148</v>
+        <v>9.374007369801546</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.44651755711139</v>
+        <v>17.79000171985127</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.26112969239552</v>
+        <v>19.66305148236946</v>
       </c>
       <c r="C25">
-        <v>23.61384683229128</v>
+        <v>16.00434597075198</v>
       </c>
       <c r="D25">
-        <v>13.01294781511696</v>
+        <v>15.12195507839646</v>
       </c>
       <c r="E25">
-        <v>14.06198396509505</v>
+        <v>16.5438784153395</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>50.84482499275023</v>
+        <v>48.97746509593344</v>
       </c>
       <c r="H25">
-        <v>14.05466595767487</v>
+        <v>18.74091615420148</v>
       </c>
       <c r="I25">
-        <v>18.87591276137316</v>
+        <v>25.55926352410763</v>
       </c>
       <c r="J25">
-        <v>5.996408659033173</v>
+        <v>9.384831084233838</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.02732976015849</v>
+        <v>17.92683408821942</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_79/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_79/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.91363166473712</v>
+        <v>24.83321463216338</v>
       </c>
       <c r="C2">
-        <v>15.28701316329902</v>
+        <v>21.485868977181</v>
       </c>
       <c r="D2">
-        <v>15.03032962933279</v>
+        <v>12.22448451889881</v>
       </c>
       <c r="E2">
-        <v>16.4524776792096</v>
+        <v>13.22185510314602</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>48.42850894251271</v>
+        <v>47.33368620632187</v>
       </c>
       <c r="H2">
-        <v>18.74572410737582</v>
+        <v>13.52852954564539</v>
       </c>
       <c r="I2">
-        <v>25.61290236982534</v>
+        <v>18.33540281643787</v>
       </c>
       <c r="J2">
-        <v>9.397903213633118</v>
+        <v>5.850565536922052</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.03386714620476</v>
+        <v>11.4559633222299</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.39786324980298</v>
+        <v>23.07706840524888</v>
       </c>
       <c r="C3">
-        <v>14.7895303551205</v>
+        <v>19.9531696383302</v>
       </c>
       <c r="D3">
-        <v>14.97548227606261</v>
+        <v>11.68735837604722</v>
       </c>
       <c r="E3">
-        <v>16.39854111648452</v>
+        <v>12.65115789106327</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>48.09034601788373</v>
+        <v>44.96301330362101</v>
       </c>
       <c r="H3">
-        <v>18.75872968850654</v>
+        <v>13.19748811555955</v>
       </c>
       <c r="I3">
-        <v>25.66374274472542</v>
+        <v>18.01867642484169</v>
       </c>
       <c r="J3">
-        <v>9.409937906010668</v>
+        <v>5.759355372485933</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.11037131698798</v>
+        <v>11.74908247094276</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.07860768532085</v>
+        <v>21.94282633884118</v>
       </c>
       <c r="C4">
-        <v>14.47978653323477</v>
+        <v>18.96620324638254</v>
       </c>
       <c r="D4">
-        <v>14.94543175829169</v>
+        <v>11.35684745206323</v>
       </c>
       <c r="E4">
-        <v>16.36941931823545</v>
+        <v>12.30075927688241</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>47.89986158433803</v>
+        <v>43.51414335677455</v>
       </c>
       <c r="H4">
-        <v>18.77149670012205</v>
+        <v>13.00639624071733</v>
       </c>
       <c r="I4">
-        <v>25.70204080166868</v>
+        <v>17.8470567681103</v>
       </c>
       <c r="J4">
-        <v>9.418890670657325</v>
+        <v>5.706963676358431</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.15931704480719</v>
+        <v>11.93093706605093</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.94807296541402</v>
+        <v>21.46636490312725</v>
       </c>
       <c r="C5">
-        <v>14.35269983360358</v>
+        <v>18.55231825321032</v>
       </c>
       <c r="D5">
-        <v>14.93410467066694</v>
+        <v>11.22211215484039</v>
       </c>
       <c r="E5">
-        <v>16.35856287909722</v>
+        <v>12.1581051620569</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>47.82660944286967</v>
+        <v>42.92592025238478</v>
       </c>
       <c r="H5">
-        <v>18.77789748566392</v>
+        <v>12.93152404182693</v>
       </c>
       <c r="I5">
-        <v>25.71941837907575</v>
+        <v>17.78262212510523</v>
       </c>
       <c r="J5">
-        <v>9.422931682766498</v>
+        <v>5.686500821247578</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.17976073990558</v>
+        <v>12.00559455220484</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.92637784254378</v>
+        <v>21.38638345981624</v>
       </c>
       <c r="C6">
-        <v>14.33155159176782</v>
+        <v>18.48288314146727</v>
       </c>
       <c r="D6">
-        <v>14.93227948706093</v>
+        <v>11.1997407648376</v>
       </c>
       <c r="E6">
-        <v>16.3568213921664</v>
+        <v>12.1344301715933</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>47.814711582379</v>
+        <v>42.82839661695279</v>
       </c>
       <c r="H6">
-        <v>18.779032560118</v>
+        <v>12.91927088398024</v>
       </c>
       <c r="I6">
-        <v>25.72241056214501</v>
+        <v>17.77224776983879</v>
       </c>
       <c r="J6">
-        <v>9.423626392761225</v>
+        <v>5.683155953314846</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.18318553342444</v>
+        <v>12.01802676493405</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.07684872524539</v>
+        <v>21.93645852568523</v>
       </c>
       <c r="C7">
-        <v>14.47807579949057</v>
+        <v>18.9606689536322</v>
       </c>
       <c r="D7">
-        <v>14.9452752689342</v>
+        <v>11.35503037443907</v>
       </c>
       <c r="E7">
-        <v>16.36926880392932</v>
+        <v>12.29883464721713</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>47.89885590764341</v>
+        <v>43.50620068852365</v>
       </c>
       <c r="H7">
-        <v>18.77157817834534</v>
+        <v>13.00537442632508</v>
       </c>
       <c r="I7">
-        <v>25.70226800560899</v>
+        <v>17.84616583313625</v>
       </c>
       <c r="J7">
-        <v>9.418943579830138</v>
+        <v>5.706684142512432</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.15959073691734</v>
+        <v>11.9319415965484</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.73645189579097</v>
+        <v>24.23919777696543</v>
       </c>
       <c r="C8">
-        <v>15.11649485599122</v>
+        <v>20.96681821869728</v>
       </c>
       <c r="D8">
-        <v>15.01067020607508</v>
+        <v>12.03950117555048</v>
       </c>
       <c r="E8">
-        <v>16.4330551878596</v>
+        <v>13.02514767259323</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>48.30838968449606</v>
+        <v>46.5151460889811</v>
       </c>
       <c r="H8">
-        <v>18.74921364650399</v>
+        <v>13.41182474693282</v>
       </c>
       <c r="I8">
-        <v>25.62895645212679</v>
+        <v>18.22130819385352</v>
       </c>
       <c r="J8">
-        <v>9.401728039080144</v>
+        <v>5.818353835986048</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.0598377811151</v>
+        <v>11.55669000191206</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.00081065905357</v>
+        <v>28.31985021490985</v>
       </c>
       <c r="C9">
-        <v>16.32578992741453</v>
+        <v>24.54503627939927</v>
       </c>
       <c r="D9">
-        <v>15.1673235492806</v>
+        <v>13.37186933968066</v>
       </c>
       <c r="E9">
-        <v>16.58951600067678</v>
+        <v>14.44524002231378</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>49.24449182504273</v>
+        <v>52.45415856281587</v>
       </c>
       <c r="H9">
-        <v>18.74346181955348</v>
+        <v>14.30821840923169</v>
       </c>
       <c r="I9">
-        <v>25.54180656065944</v>
+        <v>19.14887955151649</v>
       </c>
       <c r="J9">
-        <v>9.380391616336242</v>
+        <v>6.067001758383524</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.87977197357248</v>
+        <v>10.83182246810445</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.90118385969664</v>
+        <v>31.0668928970895</v>
       </c>
       <c r="C10">
-        <v>17.17786996269941</v>
+        <v>26.97059823897525</v>
       </c>
       <c r="D10">
-        <v>15.29919046916258</v>
+        <v>14.34147291744495</v>
       </c>
       <c r="E10">
-        <v>16.72308449833948</v>
+        <v>15.4827896964217</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>50.00864052707728</v>
+        <v>56.8331296633005</v>
       </c>
       <c r="H10">
-        <v>18.7626573311654</v>
+        <v>15.03176495832369</v>
       </c>
       <c r="I10">
-        <v>25.51283215279351</v>
+        <v>19.96183742813903</v>
       </c>
       <c r="J10">
-        <v>9.372311601270978</v>
+        <v>6.269346145914683</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.75681956708456</v>
+        <v>10.29985458913767</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.30256901650897</v>
+        <v>32.26573119951298</v>
       </c>
       <c r="C11">
-        <v>17.55573365555819</v>
+        <v>28.03352831610454</v>
       </c>
       <c r="D11">
-        <v>15.36268379150982</v>
+        <v>14.78058695343659</v>
       </c>
       <c r="E11">
-        <v>16.78775873260767</v>
+        <v>15.95363589856535</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>50.37170404225728</v>
+        <v>58.83066276952987</v>
       </c>
       <c r="H11">
-        <v>18.77650357576571</v>
+        <v>15.37626560596742</v>
       </c>
       <c r="I11">
-        <v>25.50736494654825</v>
+        <v>20.36346500954697</v>
       </c>
       <c r="J11">
-        <v>9.370288499462513</v>
+        <v>6.366091473411883</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.70288424251564</v>
+        <v>10.05639785922716</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.45323445513224</v>
+        <v>32.71274093569051</v>
       </c>
       <c r="C12">
-        <v>17.69728426865057</v>
+        <v>28.43056713892355</v>
       </c>
       <c r="D12">
-        <v>15.38721802556929</v>
+        <v>14.94663854738491</v>
       </c>
       <c r="E12">
-        <v>16.81279907327742</v>
+        <v>16.13183176909591</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>50.51130180047703</v>
+        <v>59.58829797630201</v>
       </c>
       <c r="H12">
-        <v>18.78248330095919</v>
+        <v>15.50905864652245</v>
       </c>
       <c r="I12">
-        <v>25.50641099182225</v>
+        <v>20.52041618401891</v>
       </c>
       <c r="J12">
-        <v>9.369760144895094</v>
+        <v>6.403445100685633</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.68274516930013</v>
+        <v>9.963844665680474</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.42084739343304</v>
+        <v>32.61677321614524</v>
       </c>
       <c r="C13">
-        <v>17.66686922614045</v>
+        <v>28.34529487500528</v>
       </c>
       <c r="D13">
-        <v>15.38191254047533</v>
+        <v>14.91088539357791</v>
       </c>
       <c r="E13">
-        <v>16.80738196279738</v>
+        <v>16.09345723646403</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>50.4811447005029</v>
+        <v>59.42506472550451</v>
       </c>
       <c r="H13">
-        <v>18.78116269677697</v>
+        <v>15.48035288602347</v>
       </c>
       <c r="I13">
-        <v>25.50656668658867</v>
+        <v>20.48639268109208</v>
       </c>
       <c r="J13">
-        <v>9.369863360529356</v>
+        <v>6.395367609405012</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.68706983269737</v>
+        <v>9.983796357514025</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.31499183498762</v>
+        <v>32.30264442090367</v>
       </c>
       <c r="C14">
-        <v>17.56741066178489</v>
+        <v>28.06630037567383</v>
       </c>
       <c r="D14">
-        <v>15.36469248416532</v>
+        <v>14.79425231314405</v>
       </c>
       <c r="E14">
-        <v>16.78980788000357</v>
+        <v>15.96829773973387</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>50.38314711297603</v>
+        <v>58.89296638907132</v>
       </c>
       <c r="H14">
-        <v>18.77698076818328</v>
+        <v>15.38714285146389</v>
       </c>
       <c r="I14">
-        <v>25.50726405227742</v>
+        <v>20.37627823406637</v>
       </c>
       <c r="J14">
-        <v>9.370240266174124</v>
+        <v>6.369149907926419</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.70122168723855</v>
+        <v>10.04879163578859</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.24997472978598</v>
+        <v>32.10933539030963</v>
       </c>
       <c r="C15">
-        <v>17.50628532870062</v>
+        <v>27.89470711340953</v>
       </c>
       <c r="D15">
-        <v>15.35420818825484</v>
+        <v>14.72278328197796</v>
       </c>
       <c r="E15">
-        <v>16.77911441684151</v>
+        <v>15.89162305884295</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>50.3233927071641</v>
+        <v>58.5672148915908</v>
       </c>
       <c r="H15">
-        <v>18.77451514347454</v>
+        <v>15.3303579043684</v>
       </c>
       <c r="I15">
-        <v>25.50783679152544</v>
+        <v>20.30947245262176</v>
       </c>
       <c r="J15">
-        <v>9.370502095900784</v>
+        <v>6.353185763608618</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.70992717091239</v>
+        <v>10.08855121344867</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.87477415604225</v>
+        <v>30.98755186858212</v>
       </c>
       <c r="C16">
-        <v>17.15296749053839</v>
+        <v>26.90034767546075</v>
       </c>
       <c r="D16">
-        <v>15.29511045341406</v>
+        <v>14.31273968669821</v>
       </c>
       <c r="E16">
-        <v>16.71893553155521</v>
+        <v>15.45199998654032</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>49.9852152235856</v>
+        <v>56.70272815596158</v>
       </c>
       <c r="H16">
-        <v>18.76185546092928</v>
+        <v>15.00957044302849</v>
       </c>
       <c r="I16">
-        <v>25.51334529218439</v>
+        <v>19.93625426827182</v>
       </c>
       <c r="J16">
-        <v>9.372477080956154</v>
+        <v>6.263121607336013</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.76038436718878</v>
+        <v>10.31572317674636</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.64238871355699</v>
+        <v>30.28659117465876</v>
       </c>
       <c r="C17">
-        <v>16.9336192677889</v>
+        <v>26.28020858727054</v>
       </c>
       <c r="D17">
-        <v>15.25974464670897</v>
+        <v>14.06071162926738</v>
       </c>
       <c r="E17">
-        <v>16.68301100062178</v>
+        <v>15.18204227333938</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>49.78163587549413</v>
+        <v>55.56057022523826</v>
       </c>
       <c r="H17">
-        <v>18.75539996684495</v>
+        <v>14.81679381574547</v>
       </c>
       <c r="I17">
-        <v>25.51870551650849</v>
+        <v>19.71564108363678</v>
       </c>
       <c r="J17">
-        <v>9.374112034868626</v>
+        <v>6.209101251699008</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.79184810426811</v>
+        <v>10.45461005460016</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.50796318873774</v>
+        <v>29.87861227338712</v>
       </c>
       <c r="C18">
-        <v>16.80654521862619</v>
+        <v>25.9196880329282</v>
       </c>
       <c r="D18">
-        <v>15.23973407833232</v>
+        <v>13.9155614219945</v>
       </c>
       <c r="E18">
-        <v>16.66271734414155</v>
+        <v>15.0266560723033</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>49.66600332868086</v>
+        <v>54.90411265646244</v>
       </c>
       <c r="H18">
-        <v>18.75216828242517</v>
+        <v>14.70734977008887</v>
       </c>
       <c r="I18">
-        <v>25.52251421584708</v>
+        <v>19.59172553077744</v>
       </c>
       <c r="J18">
-        <v>9.37520796009637</v>
+        <v>6.178469362761946</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.81013323872236</v>
+        <v>10.53436667714304</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.46232270926428</v>
+        <v>29.73964267995152</v>
       </c>
       <c r="C19">
-        <v>16.76336809509675</v>
+        <v>25.79695378954798</v>
       </c>
       <c r="D19">
-        <v>15.23301607472031</v>
+        <v>13.86638248364787</v>
       </c>
       <c r="E19">
-        <v>16.65591005160468</v>
+        <v>14.97402434378311</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>49.62710625098183</v>
+        <v>54.68192079591581</v>
       </c>
       <c r="H19">
-        <v>18.75115671775282</v>
+        <v>14.67053705428475</v>
       </c>
       <c r="I19">
-        <v>25.52392817392529</v>
+        <v>19.55027251490396</v>
       </c>
       <c r="J19">
-        <v>9.375605731241727</v>
+        <v>6.168172193846917</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.81635662573054</v>
+        <v>10.56135329463569</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.66720670656649</v>
+        <v>30.36170458479771</v>
       </c>
       <c r="C20">
-        <v>16.95706455220361</v>
+        <v>26.34661777082045</v>
       </c>
       <c r="D20">
-        <v>15.26347524457806</v>
+        <v>14.08755990740956</v>
       </c>
       <c r="E20">
-        <v>16.68679711102553</v>
+        <v>15.21079120234171</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>49.80315681175036</v>
+        <v>55.68210270158311</v>
       </c>
       <c r="H20">
-        <v>18.75603733805367</v>
+        <v>14.83716575530911</v>
       </c>
       <c r="I20">
-        <v>25.51805975605379</v>
+        <v>19.73881579808248</v>
       </c>
       <c r="J20">
-        <v>9.373921892013787</v>
+        <v>6.214806073228261</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.78847929042325</v>
+        <v>10.43983952948048</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.34612142444477</v>
+        <v>32.39509773044998</v>
       </c>
       <c r="C21">
-        <v>17.59666680692944</v>
+        <v>28.14839322940064</v>
       </c>
       <c r="D21">
-        <v>15.36973722711239</v>
+        <v>14.82851594014955</v>
       </c>
       <c r="E21">
-        <v>16.79495500710566</v>
+        <v>16.00506221032118</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>50.41187490621214</v>
+        <v>59.04921922864831</v>
       </c>
       <c r="H21">
-        <v>18.77818910989879</v>
+        <v>15.41445624737383</v>
       </c>
       <c r="I21">
-        <v>25.50702886804131</v>
+        <v>20.40848705758812</v>
       </c>
       <c r="J21">
-        <v>9.370123106860801</v>
+        <v>6.376830805073368</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.69705722395401</v>
+        <v>10.02971206413734</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.7820160944516</v>
+        <v>33.68363626520608</v>
       </c>
       <c r="C22">
-        <v>18.00566561336352</v>
+        <v>29.29427639594478</v>
       </c>
       <c r="D22">
-        <v>15.44203881211828</v>
+        <v>15.31147938513055</v>
       </c>
       <c r="E22">
-        <v>16.86883925199886</v>
+        <v>16.52362377649023</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>50.82197291881106</v>
+        <v>61.25724800257331</v>
       </c>
       <c r="H22">
-        <v>18.79695918439356</v>
+        <v>15.80546225343926</v>
       </c>
       <c r="I22">
-        <v>25.50632931174261</v>
+        <v>20.87466401396286</v>
       </c>
       <c r="J22">
-        <v>9.369026165922492</v>
+        <v>6.486936480645493</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.63896825748086</v>
+        <v>9.759477583023232</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.55013252645107</v>
+        <v>32.99949095834832</v>
       </c>
       <c r="C23">
-        <v>17.78824147609973</v>
+        <v>28.68546656451074</v>
       </c>
       <c r="D23">
-        <v>15.40319371847231</v>
+        <v>15.0538031614403</v>
       </c>
       <c r="E23">
-        <v>16.82911791008399</v>
+        <v>16.24687487877019</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>50.60201052847235</v>
+        <v>60.07790590328</v>
       </c>
       <c r="H23">
-        <v>18.78654829920301</v>
+        <v>15.59546854358392</v>
       </c>
       <c r="I23">
-        <v>25.50610486245861</v>
+        <v>20.62314359090517</v>
       </c>
       <c r="J23">
-        <v>9.369484807571107</v>
+        <v>6.427769017949705</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.66982014629444</v>
+        <v>9.903962996201042</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.6559890469891</v>
+        <v>30.32776137148697</v>
       </c>
       <c r="C24">
-        <v>16.94646794323632</v>
+        <v>26.31660664613377</v>
       </c>
       <c r="D24">
-        <v>15.26178763822734</v>
+        <v>14.07542260128039</v>
       </c>
       <c r="E24">
-        <v>16.68508428872435</v>
+        <v>15.19779438834621</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>49.79342280294519</v>
+        <v>55.6271573240023</v>
       </c>
       <c r="H24">
-        <v>18.75574768856798</v>
+        <v>14.82795129434652</v>
       </c>
       <c r="I24">
-        <v>25.51834944035669</v>
+        <v>19.72832944249528</v>
       </c>
       <c r="J24">
-        <v>9.374007369801546</v>
+        <v>6.212225602325189</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.79000171985127</v>
+        <v>10.44651755711139</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.66305148236946</v>
+        <v>27.26112969239549</v>
       </c>
       <c r="C25">
-        <v>16.00434597075198</v>
+        <v>23.61384683229132</v>
       </c>
       <c r="D25">
-        <v>15.12195507839646</v>
+        <v>13.01294781511697</v>
       </c>
       <c r="E25">
-        <v>16.5438784153395</v>
+        <v>14.06198396509505</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>48.97746509593344</v>
+        <v>50.84482499275029</v>
       </c>
       <c r="H25">
-        <v>18.74091615420148</v>
+        <v>14.0546659576749</v>
       </c>
       <c r="I25">
-        <v>25.55926352410763</v>
+        <v>18.87591276137323</v>
       </c>
       <c r="J25">
-        <v>9.384831084233838</v>
+        <v>5.996408659033146</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.92683408821942</v>
+        <v>11.02732976015852</v>
       </c>
       <c r="O25">
         <v>0</v>
